--- a/x.worktrack.xlsx
+++ b/x.worktrack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/R/Dev/course/5-UIUX/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1995DFC-D69C-9348-9092-B3ED7CDD5D63}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7368EDEA-7606-944F-8EBE-9FC81B3CFD6D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32400" yWindow="580" windowWidth="20780" windowHeight="13780" xr2:uid="{2CD7039F-3743-AC44-8E06-F886C0EA6228}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="121">
   <si>
     <t>UI UX</t>
   </si>
@@ -836,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{673BEF1E-F7B4-B349-8F03-17A98A8EAA52}">
   <dimension ref="A1:AG318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+    <sheetView tabSelected="1" topLeftCell="B52" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3223,8 +3223,12 @@
       <c r="A72" s="8">
         <v>44354</v>
       </c>
-      <c r="B72" s="9"/>
-      <c r="C72" s="9"/>
+      <c r="B72" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>113</v>
+      </c>
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>

--- a/x.worktrack.xlsx
+++ b/x.worktrack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/R/Dev/course/5-UIUX/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7368EDEA-7606-944F-8EBE-9FC81B3CFD6D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14990552-AA0A-AC4A-BD01-16B566BD7046}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32400" yWindow="580" windowWidth="20780" windowHeight="13780" xr2:uid="{2CD7039F-3743-AC44-8E06-F886C0EA6228}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="122">
   <si>
     <t>UI UX</t>
   </si>
@@ -386,13 +386,16 @@
     <t>Same thesis. Go to assets tab. Changes to master component affect everything but can be overriden</t>
   </si>
   <si>
-    <t>Client project</t>
-  </si>
-  <si>
     <t>Using asset kits, base styles and moodboards (how do you import these assets into any project?), Constant thoughts and feedback to clients, Educate them…</t>
   </si>
   <si>
     <t>Reverse trick! = Group &gt; Select both and click the pink circle</t>
+  </si>
+  <si>
+    <t>Homepage design</t>
+  </si>
+  <si>
+    <t>Using our wireframe as a crutch. Learned cool radial gradient trick</t>
   </si>
 </sst>
 </file>
@@ -837,7 +840,7 @@
   <dimension ref="A1:AG318"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B52" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3126,13 +3129,13 @@
         <v>44351</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C69" s="9" t="s">
         <v>113</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
@@ -3160,13 +3163,13 @@
         <v>44351</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C70" s="9" t="s">
         <v>113</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
@@ -3194,9 +3197,11 @@
         <v>44351</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C71" s="9"/>
+        <v>110</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>113</v>
+      </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
@@ -3224,12 +3229,14 @@
         <v>44354</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="D72" s="9"/>
+        <v>120</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>121</v>
+      </c>
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
